--- a/table/regression_table_full_sample_adjusted.xlsx
+++ b/table/regression_table_full_sample_adjusted.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcblauert/Documents/01_Studium/00_INRM/05_MaThesis/MaThesisWriting/table/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A44205C7-B010-6F44-854C-F0A621FC8A31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39327DF5-755E-6D45-AEA7-2ADC9A252B5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5580" yWindow="2340" windowWidth="27640" windowHeight="16860" xr2:uid="{757B24CF-4B51-0A4A-9DCA-26A5CB75CE3B}"/>
+    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="16300" xr2:uid="{757B24CF-4B51-0A4A-9DCA-26A5CB75CE3B}"/>
   </bookViews>
   <sheets>
     <sheet name="regression_table_adjusted" sheetId="1" r:id="rId1"/>
@@ -209,6 +209,7 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -303,26 +304,26 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -641,7 +642,7 @@
   <dimension ref="A2:H27"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -654,46 +655,46 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
     </row>
     <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="11"/>
+      <c r="D3" s="17"/>
       <c r="E3" s="2"/>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
     </row>
     <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="11" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="3"/>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="11" t="s">
         <v>4</v>
       </c>
       <c r="E4" s="4"/>
-      <c r="F4" s="15" t="s">
+      <c r="F4" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="G4" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="15" t="s">
+      <c r="H4" s="11" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1072,24 +1073,24 @@
       </c>
     </row>
     <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="16" t="s">
+      <c r="A22" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B22" s="5"/>
-      <c r="C22" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="D22" s="17" t="s">
+      <c r="C22" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" s="13" t="s">
         <v>43</v>
       </c>
       <c r="E22" s="6"/>
-      <c r="F22" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="G22" s="17" t="s">
+      <c r="F22" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G22" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="H22" s="17" t="s">
+      <c r="H22" s="13" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1182,24 +1183,24 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="12" t="s">
+      <c r="A27" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="B27" s="13"/>
-      <c r="C27" s="12" t="s">
+      <c r="B27" s="15"/>
+      <c r="C27" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="D27" s="12" t="s">
+      <c r="D27" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="E27" s="13"/>
-      <c r="F27" s="12" t="s">
+      <c r="E27" s="15"/>
+      <c r="F27" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="G27" s="12" t="s">
+      <c r="G27" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="H27" s="12" t="s">
+      <c r="H27" s="14" t="s">
         <v>49</v>
       </c>
     </row>
